--- a/Intelligibility/transposedIntelligibility_bm25.xlsx
+++ b/Intelligibility/transposedIntelligibility_bm25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z31"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,7 +559,6 @@
           <t>v70</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -639,9 +638,6 @@
       <c r="Y2" t="n">
         <v>-0.2845718212159317</v>
       </c>
-      <c r="Z2" t="n">
-        <v>-0.2944959277056188</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -721,9 +717,6 @@
       <c r="Y3" t="n">
         <v>-0.2757722619035998</v>
       </c>
-      <c r="Z3" t="n">
-        <v>-0.2194250236657498</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -803,9 +796,6 @@
       <c r="Y4" t="n">
         <v>-0.370447729633947</v>
       </c>
-      <c r="Z4" t="n">
-        <v>-0.3198528012523318</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -885,9 +875,6 @@
       <c r="Y5" t="n">
         <v>-0.2279046901903983</v>
       </c>
-      <c r="Z5" t="n">
-        <v>-0.2986190577088531</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -967,9 +954,6 @@
       <c r="Y6" t="n">
         <v>-0.1784712175444098</v>
       </c>
-      <c r="Z6" t="n">
-        <v>-0.3489168439378887</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1049,9 +1033,6 @@
       <c r="Y7" t="n">
         <v>-0.3974678377151713</v>
       </c>
-      <c r="Z7" t="n">
-        <v>-0.3199146379163246</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1131,9 +1112,6 @@
       <c r="Y8" t="n">
         <v>-3.73685015463312</v>
       </c>
-      <c r="Z8" t="n">
-        <v>-0.3114926438927634</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1213,9 +1191,6 @@
       <c r="Y9" t="n">
         <v>-3.438074829508952</v>
       </c>
-      <c r="Z9" t="n">
-        <v>-0.3053889797765906</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1295,9 +1270,6 @@
       <c r="Y10" t="n">
         <v>-2.683482998196028</v>
       </c>
-      <c r="Z10" t="n">
-        <v>-0.3253658019820117</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1377,9 +1349,6 @@
       <c r="Y11" t="n">
         <v>-2.200792746963684</v>
       </c>
-      <c r="Z11" t="n">
-        <v>-0.3264910760930999</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1459,9 +1428,6 @@
       <c r="Y12" t="n">
         <v>-0.3377886097371552</v>
       </c>
-      <c r="Z12" t="n">
-        <v>-0.2089677124954782</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1541,9 +1507,6 @@
       <c r="Y13" t="n">
         <v>-0.2393428333001473</v>
       </c>
-      <c r="Z13" t="n">
-        <v>-0.2407088751573719</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1623,9 +1586,6 @@
       <c r="Y14" t="n">
         <v>-0.1319297571996327</v>
       </c>
-      <c r="Z14" t="n">
-        <v>-0.2026680354343467</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1705,9 +1665,6 @@
       <c r="Y15" t="n">
         <v>-0.176497898333153</v>
       </c>
-      <c r="Z15" t="n">
-        <v>-0.3463041151459787</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1787,9 +1744,6 @@
       <c r="Y16" t="n">
         <v>-0.2755762248347267</v>
       </c>
-      <c r="Z16" t="n">
-        <v>-0.3127212582901371</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1869,9 +1823,6 @@
       <c r="Y17" t="n">
         <v>-0.10816300496229</v>
       </c>
-      <c r="Z17" t="n">
-        <v>-0.1895905407884959</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1951,9 +1902,6 @@
       <c r="Y18" t="n">
         <v>-0.1296520143040819</v>
       </c>
-      <c r="Z18" t="n">
-        <v>-0.2970089712425204</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -2033,9 +1981,6 @@
       <c r="Y19" t="n">
         <v>-0.0419620790224544</v>
       </c>
-      <c r="Z19" t="n">
-        <v>-0.1967238438103902</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -2115,9 +2060,6 @@
       <c r="Y20" t="n">
         <v>-0.0681717986316189</v>
       </c>
-      <c r="Z20" t="n">
-        <v>-0.2129998494396415</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -2197,9 +2139,6 @@
       <c r="Y21" t="n">
         <v>-0.0699465656319402</v>
       </c>
-      <c r="Z21" t="n">
-        <v>-0.1949458715419865</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -2279,9 +2218,6 @@
       <c r="Y22" t="n">
         <v>-0.1126500031970772</v>
       </c>
-      <c r="Z22" t="n">
-        <v>-0.2058545731520313</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -2361,9 +2297,6 @@
       <c r="Y23" t="n">
         <v>-0.0352946910621513</v>
       </c>
-      <c r="Z23" t="n">
-        <v>-0.3124253915897093</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -2443,9 +2376,6 @@
       <c r="Y24" t="n">
         <v>0</v>
       </c>
-      <c r="Z24" t="n">
-        <v>-0.2047246250528324</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -2525,9 +2455,6 @@
       <c r="Y25" t="n">
         <v>-0.127801281781441</v>
       </c>
-      <c r="Z25" t="n">
-        <v>-0.1946267873378764</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -2607,9 +2534,6 @@
       <c r="Y26" t="n">
         <v>-0.0146236570444427</v>
       </c>
-      <c r="Z26" t="n">
-        <v>-0.1220580825773221</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -2689,9 +2613,6 @@
       <c r="Y27" t="n">
         <v>-0.1190172573900847</v>
       </c>
-      <c r="Z27" t="n">
-        <v>-0.2209778732187722</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -2771,9 +2692,6 @@
       <c r="Y28" t="n">
         <v>-0.2293827683493564</v>
       </c>
-      <c r="Z28" t="n">
-        <v>-0.2711077196691804</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -2853,9 +2771,6 @@
       <c r="Y29" t="n">
         <v>-0.0634381702097491</v>
       </c>
-      <c r="Z29" t="n">
-        <v>-0.06522147711203589</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -2935,9 +2850,6 @@
       <c r="Y30" t="n">
         <v>-0.0120270496173743</v>
       </c>
-      <c r="Z30" t="n">
-        <v>-0.2279880109044796</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -3016,9 +2928,6 @@
       </c>
       <c r="Y31" t="n">
         <v>-0.1937262588019832</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>-0.2161226254185641</v>
       </c>
     </row>
   </sheetData>
